--- a/4_Measurements/measurement.xlsx
+++ b/4_Measurements/measurement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalo\Desktop\Bachelor\4_Measurements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan Loretan\Desktop\Bachelor\4_Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,8 @@
   <definedNames>
     <definedName name="System">Feuil1!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>System</t>
   </si>
   <si>
-    <t>Connection Interval</t>
-  </si>
-  <si>
     <t>Slave Latency</t>
   </si>
   <si>
@@ -44,9 +42,6 @@
     <t>MTU</t>
   </si>
   <si>
-    <t>Packet per connection Interval</t>
-  </si>
-  <si>
     <t>BLE</t>
   </si>
   <si>
@@ -74,12 +69,6 @@
     <t>Interval</t>
   </si>
   <si>
-    <t>T Stack propagation</t>
-  </si>
-  <si>
-    <t>R Stack propagation</t>
-  </si>
-  <si>
     <t>Interrupt Latency</t>
   </si>
   <si>
@@ -98,29 +87,129 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>ON</t>
-  </si>
-  <si>
     <t>Settings</t>
   </si>
   <si>
     <t>Measurements</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Bytes</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Pkts</t>
+  </si>
+  <si>
+    <t>7.5ms ≤ n · 1.25ms ≤ 4s</t>
+  </si>
+  <si>
+    <t>20ms ≤ n · 10 ms ≤ 10.24s</t>
+  </si>
+  <si>
+    <t>MTU/23 Bytes</t>
+  </si>
+  <si>
+    <t>Packets per connection Interval</t>
+  </si>
+  <si>
+    <t>0 ≤ n ≤ 499</t>
+  </si>
+  <si>
+    <t>23 ≤ n ≤ 251 Bytes</t>
+  </si>
+  <si>
+    <t>1 ≤ n ≤ 32 Bytes</t>
+  </si>
+  <si>
+    <t>Connection Interval max</t>
+  </si>
+  <si>
+    <t>Connection Interval min</t>
+  </si>
+  <si>
+    <t>1Hz ≤ n ≤ 16MHz</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Résultat cumulé</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>· f</t>
+  </si>
+  <si>
+    <t>BLE Stack Propagation</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HCI</t>
+    </r>
+  </si>
+  <si>
+    <t>HCI → Application</t>
+  </si>
+  <si>
+    <t>Interrupt frequency</t>
+  </si>
+  <si>
+    <t>Connection Event Handle</t>
+  </si>
+  <si>
+    <t>Disconnection</t>
+  </si>
+  <si>
+    <t>µs</t>
+  </si>
+  <si>
+    <t>Latency time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,19 +224,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -156,10 +301,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,15 +397,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -528,180 +750,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="6.9296875" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="19" max="19" width="11.3984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="J2" s="25">
+        <f>B24</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <f>IF(C25="· f", J2*B25, J2+B25)</f>
+        <v>10</v>
+      </c>
+      <c r="L2" s="4">
+        <f>IF(C25="· f", K2*B25, K2+B25)</f>
+        <v>100</v>
+      </c>
+      <c r="M2" s="4">
+        <f>IF(C25="· f", L2*B25, L2+B25)</f>
+        <v>1000</v>
+      </c>
+      <c r="N2" s="4">
+        <f>IF(C25="· f", M2*B25, M2+B25)</f>
+        <v>10000</v>
+      </c>
+      <c r="O2" s="4">
+        <f>IF(C25="· f", N2*B25, N2+B25)</f>
+        <v>100000</v>
+      </c>
+      <c r="P2" s="4">
+        <f>IF(C25="· f", O2*B25, O2+B25)</f>
+        <v>1000000</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>IF(C25="· f", P2*B25, P2+B25)</f>
+        <v>10000000</v>
+      </c>
+      <c r="R2" s="4">
+        <f>IF(C25="· f", Q2*B25, Q2+B25)</f>
+        <v>100000000</v>
+      </c>
+      <c r="S2" s="32"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="4"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11">
+        <v>23</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="10">
+        <f>B10/23</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B15" s="10">
+        <v>480</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="13" t="str">
+        <f>ROUND(1/B15*1000,3) &amp; "[ms]"</f>
+        <v>2.083[ms]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C19" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11">
+        <v>5.3760000000000003</v>
+      </c>
+      <c r="C20" s="8" t="str">
+        <f>IF((OR(B20=1.344, B20=1.6, B20=5.376)), "kHz", "Hz")</f>
+        <v>kHz</v>
+      </c>
+      <c r="D20" s="16" t="str">
+        <f>IF((OR(B20=1.344, B20=1.6, B20=5.376)), ROUND(1/B20, 3) &amp; "[ms]", ROUND(1/B20*1000, 3) &amp; "[ms]")</f>
+        <v>0.186[ms]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B25" s="22">
+        <v>10</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B26" s="10">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="21"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <mergeCells count="10">
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Zephyr, SoftDevice"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"Peripheral, Central"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B13 B16 B20">
-      <formula1>"ON,OFF"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B18 B23 B4">
+      <formula1>"On, Off"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>23</formula1>
+      <formula2>251</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7">
+      <formula1>7.5</formula1>
+      <formula2>4000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>20</formula1>
+      <formula2>10240</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+      <formula1>"50,60,100,120,200,240,400,480"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>"1,10,25,50,100,200,400,1.344,1.6,5.376"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C6:C7 C26">
+      <formula1>"ms,s"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>1</formula1>
+      <formula2>32</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>0</formula1>
+      <formula2>499</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
+      <formula1>"Hz,kHz,MHz"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
+      <formula1>"'+ f,· f"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
